--- a/medicine/Enfance/Lucile_Placin/Lucile_Placin.xlsx
+++ b/medicine/Enfance/Lucile_Placin/Lucile_Placin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucile Placin, née en 1981 à Bordeaux, est une autrice et illustratrice française de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire des Landes, elle qui se rêvait créatrice de décors de théâtre, découvre le monde de l’illustration jeunesse en intégrant la prestigieuse école Emile Cohl à Lyon. 
 Elle s’installe dans son atelier au pays basque, et commence à travailler pour la littérature jeunesse.
@@ -551,9 +565,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, Lucie Placin signe les illustrations de album Le goût des voyages de Geneviève Clastres aux éditions Gallimard, et obtient le prix Amerigo-Vespucci qui récompense les ouvrages de fiction ou de création dédiés à l’aventure, aux voyages, aux terres lointaines[1],[2]. En 2018, elle est lauréate du prix du Paille-en-queue lors du salon du livre de la Réunion pour Les instruments de la musique Klezmer chez Didier Jeunesse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, Lucie Placin signe les illustrations de album Le goût des voyages de Geneviève Clastres aux éditions Gallimard, et obtient le prix Amerigo-Vespucci qui récompense les ouvrages de fiction ou de création dédiés à l’aventure, aux voyages, aux terres lointaines,. En 2018, elle est lauréate du prix du Paille-en-queue lors du salon du livre de la Réunion pour Les instruments de la musique Klezmer chez Didier Jeunesse.
 </t>
         </is>
       </c>
